--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H2">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I2">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J2">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.32676364823614</v>
+        <v>2.652098</v>
       </c>
       <c r="N2">
-        <v>2.32676364823614</v>
+        <v>7.956294000000001</v>
       </c>
       <c r="O2">
-        <v>0.1851872843340932</v>
+        <v>0.1783170651171435</v>
       </c>
       <c r="P2">
-        <v>0.1851872843340932</v>
+        <v>0.1783170651171436</v>
       </c>
       <c r="Q2">
-        <v>0.4440850453728418</v>
+        <v>0.524614157478</v>
       </c>
       <c r="R2">
-        <v>0.4440850453728418</v>
+        <v>4.721527417302</v>
       </c>
       <c r="S2">
-        <v>0.0002343309117092041</v>
+        <v>0.0002272011035064357</v>
       </c>
       <c r="T2">
-        <v>0.0002343309117092041</v>
+        <v>0.0002272011035064358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H3">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I3">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J3">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.46998607930175</v>
+        <v>5.511188000000001</v>
       </c>
       <c r="N3">
-        <v>5.46998607930175</v>
+        <v>16.533564</v>
       </c>
       <c r="O3">
-        <v>0.4353565812922567</v>
+        <v>0.370551491486672</v>
       </c>
       <c r="P3">
-        <v>0.4353565812922567</v>
+        <v>0.3705514914866722</v>
       </c>
       <c r="Q3">
-        <v>1.043999040494293</v>
+        <v>1.090173609468</v>
       </c>
       <c r="R3">
-        <v>1.043999040494293</v>
+        <v>9.811562485212001</v>
       </c>
       <c r="S3">
-        <v>0.0005508882803679367</v>
+        <v>0.0004721348891449057</v>
       </c>
       <c r="T3">
-        <v>0.0005508882803679367</v>
+        <v>0.000472134889144906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H4">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I4">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J4">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.72924586061161</v>
+        <v>2.28691</v>
       </c>
       <c r="N4">
-        <v>1.72924586061161</v>
+        <v>6.860729999999999</v>
       </c>
       <c r="O4">
-        <v>0.137630801098082</v>
+        <v>0.1537632015811809</v>
       </c>
       <c r="P4">
-        <v>0.137630801098082</v>
+        <v>0.1537632015811809</v>
       </c>
       <c r="Q4">
-        <v>0.3300430738002356</v>
+        <v>0.4523759540099999</v>
       </c>
       <c r="R4">
-        <v>0.3300430738002356</v>
+        <v>4.07138358609</v>
       </c>
       <c r="S4">
-        <v>0.0001741542418344336</v>
+        <v>0.0001959160165347972</v>
       </c>
       <c r="T4">
-        <v>0.0001741542418344336</v>
+        <v>0.0001959160165347973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H5">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I5">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J5">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.03838568998656</v>
+        <v>4.422738333333334</v>
       </c>
       <c r="N5">
-        <v>3.03838568998656</v>
+        <v>13.268215</v>
       </c>
       <c r="O5">
-        <v>0.241825333275568</v>
+        <v>0.2973682418150034</v>
       </c>
       <c r="P5">
-        <v>0.241825333275568</v>
+        <v>0.2973682418150034</v>
       </c>
       <c r="Q5">
-        <v>0.5799049026834959</v>
+        <v>0.8748662924550001</v>
       </c>
       <c r="R5">
-        <v>0.5799049026834959</v>
+        <v>7.873796632095001</v>
       </c>
       <c r="S5">
-        <v>0.0003059991458085953</v>
+        <v>0.0003788891020820299</v>
       </c>
       <c r="T5">
-        <v>0.0003059991458085953</v>
+        <v>0.0003788891020820301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>150.641824477826</v>
+        <v>154.0066273333333</v>
       </c>
       <c r="H6">
-        <v>150.641824477826</v>
+        <v>462.0198820000001</v>
       </c>
       <c r="I6">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744044</v>
       </c>
       <c r="J6">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.32676364823614</v>
+        <v>2.652098</v>
       </c>
       <c r="N6">
-        <v>2.32676364823614</v>
+        <v>7.956294000000001</v>
       </c>
       <c r="O6">
-        <v>0.1851872843340932</v>
+        <v>0.1783170651171435</v>
       </c>
       <c r="P6">
-        <v>0.1851872843340932</v>
+        <v>0.1783170651171436</v>
       </c>
       <c r="Q6">
-        <v>350.5079210989746</v>
+        <v>408.4406683374787</v>
       </c>
       <c r="R6">
-        <v>350.5079210989746</v>
+        <v>3675.966015037309</v>
       </c>
       <c r="S6">
-        <v>0.184952953422384</v>
+        <v>0.1768884221678154</v>
       </c>
       <c r="T6">
-        <v>0.184952953422384</v>
+        <v>0.1768884221678155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>150.641824477826</v>
+        <v>154.0066273333333</v>
       </c>
       <c r="H7">
-        <v>150.641824477826</v>
+        <v>462.0198820000001</v>
       </c>
       <c r="I7">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744044</v>
       </c>
       <c r="J7">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.46998607930175</v>
+        <v>5.511188000000001</v>
       </c>
       <c r="N7">
-        <v>5.46998607930175</v>
+        <v>16.533564</v>
       </c>
       <c r="O7">
-        <v>0.4353565812922567</v>
+        <v>0.370551491486672</v>
       </c>
       <c r="P7">
-        <v>0.4353565812922567</v>
+        <v>0.3705514914866722</v>
       </c>
       <c r="Q7">
-        <v>824.0086828543257</v>
+        <v>848.7594764799388</v>
       </c>
       <c r="R7">
-        <v>824.0086828543257</v>
+        <v>7638.835288319449</v>
       </c>
       <c r="S7">
-        <v>0.4348056930118888</v>
+        <v>0.3675827022946355</v>
       </c>
       <c r="T7">
-        <v>0.4348056930118888</v>
+        <v>0.3675827022946357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.641824477826</v>
+        <v>154.0066273333333</v>
       </c>
       <c r="H8">
-        <v>150.641824477826</v>
+        <v>462.0198820000001</v>
       </c>
       <c r="I8">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744044</v>
       </c>
       <c r="J8">
-        <v>0.9987346274202799</v>
+        <v>0.9919881871744045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.72924586061161</v>
+        <v>2.28691</v>
       </c>
       <c r="N8">
-        <v>1.72924586061161</v>
+        <v>6.860729999999999</v>
       </c>
       <c r="O8">
-        <v>0.137630801098082</v>
+        <v>0.1537632015811809</v>
       </c>
       <c r="P8">
-        <v>0.137630801098082</v>
+        <v>0.1537632015811809</v>
       </c>
       <c r="Q8">
-        <v>260.4967514132613</v>
+        <v>352.1992961148733</v>
       </c>
       <c r="R8">
-        <v>260.4967514132613</v>
+        <v>3169.79366503386</v>
       </c>
       <c r="S8">
-        <v>0.1374566468562476</v>
+        <v>0.1525312795906481</v>
       </c>
       <c r="T8">
-        <v>0.1374566468562476</v>
+        <v>0.1525312795906482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>154.0066273333333</v>
+      </c>
+      <c r="H9">
+        <v>462.0198820000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9919881871744044</v>
+      </c>
+      <c r="J9">
+        <v>0.9919881871744045</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.422738333333334</v>
+      </c>
+      <c r="N9">
+        <v>13.268215</v>
+      </c>
+      <c r="O9">
+        <v>0.2973682418150034</v>
+      </c>
+      <c r="P9">
+        <v>0.2973682418150034</v>
+      </c>
+      <c r="Q9">
+        <v>681.1310142945146</v>
+      </c>
+      <c r="R9">
+        <v>6130.179128650631</v>
+      </c>
+      <c r="S9">
+        <v>0.2949857831213051</v>
+      </c>
+      <c r="T9">
+        <v>0.2949857831213052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.13808</v>
+      </c>
+      <c r="I10">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J10">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.652098</v>
+      </c>
+      <c r="N10">
+        <v>7.956294000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1783170651171435</v>
+      </c>
+      <c r="P10">
+        <v>0.1783170651171436</v>
+      </c>
+      <c r="Q10">
+        <v>2.774165230613333</v>
+      </c>
+      <c r="R10">
+        <v>24.96748707552</v>
+      </c>
+      <c r="S10">
+        <v>0.001201441845821644</v>
+      </c>
+      <c r="T10">
+        <v>0.001201441845821644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>150.641824477826</v>
-      </c>
-      <c r="H9">
-        <v>150.641824477826</v>
-      </c>
-      <c r="I9">
-        <v>0.9987346274202799</v>
-      </c>
-      <c r="J9">
-        <v>0.9987346274202799</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.03838568998656</v>
-      </c>
-      <c r="N9">
-        <v>3.03838568998656</v>
-      </c>
-      <c r="O9">
-        <v>0.241825333275568</v>
-      </c>
-      <c r="P9">
-        <v>0.241825333275568</v>
-      </c>
-      <c r="Q9">
-        <v>457.7079638068935</v>
-      </c>
-      <c r="R9">
-        <v>457.7079638068935</v>
-      </c>
-      <c r="S9">
-        <v>0.2415193341297594</v>
-      </c>
-      <c r="T9">
-        <v>0.2415193341297594</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.13808</v>
+      </c>
+      <c r="I11">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J11">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.511188000000001</v>
+      </c>
+      <c r="N11">
+        <v>16.533564</v>
+      </c>
+      <c r="O11">
+        <v>0.370551491486672</v>
+      </c>
+      <c r="P11">
+        <v>0.3705514914866722</v>
+      </c>
+      <c r="Q11">
+        <v>5.764849613013334</v>
+      </c>
+      <c r="R11">
+        <v>51.88364651712001</v>
+      </c>
+      <c r="S11">
+        <v>0.002496654302891558</v>
+      </c>
+      <c r="T11">
+        <v>0.002496654302891559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.13808</v>
+      </c>
+      <c r="I12">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J12">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.28691</v>
+      </c>
+      <c r="N12">
+        <v>6.860729999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1537632015811809</v>
+      </c>
+      <c r="P12">
+        <v>0.1537632015811809</v>
+      </c>
+      <c r="Q12">
+        <v>2.392168844266666</v>
+      </c>
+      <c r="R12">
+        <v>21.5295195984</v>
+      </c>
+      <c r="S12">
+        <v>0.001036005973997935</v>
+      </c>
+      <c r="T12">
+        <v>0.001036005973997935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.13808</v>
+      </c>
+      <c r="I13">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J13">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.422738333333334</v>
+      </c>
+      <c r="N13">
+        <v>13.268215</v>
+      </c>
+      <c r="O13">
+        <v>0.2973682418150034</v>
+      </c>
+      <c r="P13">
+        <v>0.2973682418150034</v>
+      </c>
+      <c r="Q13">
+        <v>4.626302236355556</v>
+      </c>
+      <c r="R13">
+        <v>41.63672012720001</v>
+      </c>
+      <c r="S13">
+        <v>0.002003569591616201</v>
+      </c>
+      <c r="T13">
+        <v>0.002003569591616201</v>
       </c>
     </row>
   </sheetData>
